--- a/Test Documents/Test Documents for Customers/Test Design For Customers.xlsx
+++ b/Test Documents/Test Documents for Customers/Test Design For Customers.xlsx
@@ -201,7 +201,7 @@
     <t>User is logged out</t>
   </si>
   <si>
-    <t>Paypal gateway</t>
+    <t>Add Funds page</t>
   </si>
   <si>
     <t>User to be on Add funds page</t>
